--- a/azure_regions.xlsx
+++ b/azure_regions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:Q154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5366,17 +5366,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Norway East</t>
+          <t>Italy North</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/norwayeast</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/italynorth</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -5386,17 +5386,17 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>59.913868</t>
+          <t>45.46888</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>10.752245</t>
+          <t>9.18109</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -5411,7 +5411,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>(Europe) Norway East</t>
+          <t>(Europe) Italy North</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -5421,19 +5421,11 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>norwayeast</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/norwaywest</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>norwaywest</t>
-        </is>
-      </c>
+          <t>italynorth</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>1</t>
@@ -5441,7 +5433,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>norwayeast-az2</t>
+          <t>italynorth-az2</t>
         </is>
       </c>
     </row>
@@ -5451,17 +5443,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Norway East</t>
+          <t>Italy North</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/norwayeast</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/italynorth</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -5471,17 +5463,17 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>59.913868</t>
+          <t>45.46888</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10.752245</t>
+          <t>9.18109</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5496,7 +5488,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>(Europe) Norway East</t>
+          <t>(Europe) Italy North</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5506,19 +5498,11 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>norwayeast</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/norwaywest</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>norwaywest</t>
-        </is>
-      </c>
+          <t>italynorth</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>2</t>
@@ -5526,7 +5510,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>norwayeast-az3</t>
+          <t>italynorth-az3</t>
         </is>
       </c>
     </row>
@@ -5536,17 +5520,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Norway East</t>
+          <t>Italy North</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/norwayeast</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/italynorth</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -5556,17 +5540,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>59.913868</t>
+          <t>45.46888</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10.752245</t>
+          <t>9.18109</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5581,7 +5565,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>(Europe) Norway East</t>
+          <t>(Europe) Italy North</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5591,19 +5575,11 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>norwayeast</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/norwaywest</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>norwaywest</t>
-        </is>
-      </c>
+          <t>italynorth</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>3</t>
@@ -5611,7 +5587,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>norwayeast-az1</t>
+          <t>italynorth-az1</t>
         </is>
       </c>
     </row>
@@ -5621,17 +5597,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Switzerland North</t>
+          <t>Norway East</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/switzerlandnorth</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/norwayeast</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -5641,17 +5617,17 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>47.451542</t>
+          <t>59.913868</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>8.564572</t>
+          <t>10.752245</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5666,7 +5642,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>(Europe) Switzerland North</t>
+          <t>(Europe) Norway East</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5676,17 +5652,17 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>switzerlandnorth</t>
+          <t>norwayeast</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/switzerlandwest</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/norwaywest</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>switzerlandwest</t>
+          <t>norwaywest</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -5696,7 +5672,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>switzerlandnorth-az2</t>
+          <t>norwayeast-az2</t>
         </is>
       </c>
     </row>
@@ -5706,17 +5682,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Switzerland North</t>
+          <t>Norway East</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/switzerlandnorth</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/norwayeast</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -5726,17 +5702,17 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>47.451542</t>
+          <t>59.913868</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>8.564572</t>
+          <t>10.752245</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5751,7 +5727,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>(Europe) Switzerland North</t>
+          <t>(Europe) Norway East</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5761,17 +5737,17 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>switzerlandnorth</t>
+          <t>norwayeast</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/switzerlandwest</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/norwaywest</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>switzerlandwest</t>
+          <t>norwaywest</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -5781,7 +5757,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>switzerlandnorth-az3</t>
+          <t>norwayeast-az3</t>
         </is>
       </c>
     </row>
@@ -5791,17 +5767,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Switzerland North</t>
+          <t>Norway East</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/switzerlandnorth</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/norwayeast</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -5811,17 +5787,17 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>47.451542</t>
+          <t>59.913868</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>8.564572</t>
+          <t>10.752245</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5836,7 +5812,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>(Europe) Switzerland North</t>
+          <t>(Europe) Norway East</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5846,17 +5822,17 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>switzerlandnorth</t>
+          <t>norwayeast</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/switzerlandwest</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/norwaywest</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>switzerlandwest</t>
+          <t>norwaywest</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -5866,7 +5842,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>switzerlandnorth-az1</t>
+          <t>norwayeast-az1</t>
         </is>
       </c>
     </row>
@@ -5876,37 +5852,37 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>UAE North</t>
+          <t>Poland Central</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/uaenorth</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/polandcentral</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Middle East</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>25.266666</t>
+          <t>52.23334</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>55.316666</t>
+          <t>21.01666</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Dubai</t>
+          <t>Warsaw</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5921,7 +5897,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>(Middle East) UAE North</t>
+          <t>(Europe) Poland Central</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5931,19 +5907,11 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>uaenorth</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/uaecentral</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>uaecentral</t>
-        </is>
-      </c>
+          <t>polandcentral</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
           <t>1</t>
@@ -5951,7 +5919,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>uaenorth-az2</t>
+          <t>polandcentral-az2</t>
         </is>
       </c>
     </row>
@@ -5961,37 +5929,37 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>UAE North</t>
+          <t>Poland Central</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/uaenorth</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/polandcentral</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Middle East</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>25.266666</t>
+          <t>52.23334</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>55.316666</t>
+          <t>21.01666</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Dubai</t>
+          <t>Warsaw</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -6006,7 +5974,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>(Middle East) UAE North</t>
+          <t>(Europe) Poland Central</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -6016,19 +5984,11 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>uaenorth</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/uaecentral</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>uaecentral</t>
-        </is>
-      </c>
+          <t>polandcentral</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>2</t>
@@ -6036,7 +5996,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>uaenorth-az3</t>
+          <t>polandcentral-az3</t>
         </is>
       </c>
     </row>
@@ -6046,37 +6006,37 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>UAE North</t>
+          <t>Poland Central</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/uaenorth</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/polandcentral</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Middle East</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>25.266666</t>
+          <t>52.23334</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>55.316666</t>
+          <t>21.01666</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Dubai</t>
+          <t>Warsaw</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -6091,7 +6051,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>(Middle East) UAE North</t>
+          <t>(Europe) Poland Central</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -6101,19 +6061,11 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>uaenorth</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/uaecentral</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>uaecentral</t>
-        </is>
-      </c>
+          <t>polandcentral</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
           <t>3</t>
@@ -6121,7 +6073,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>uaenorth-az1</t>
+          <t>polandcentral-az1</t>
         </is>
       </c>
     </row>
@@ -6131,37 +6083,37 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Brazil South</t>
+          <t>Spain Central</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/brazilsouth</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/spaincentral</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>-23.55</t>
+          <t>40.4259</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>-46.633</t>
+          <t>3.4209</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Sao Paulo State</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -6176,7 +6128,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>(South America) Brazil South</t>
+          <t>(Europe) Spain Central</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -6186,19 +6138,11 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>brazilsouth</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/southcentralus</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>southcentralus</t>
-        </is>
-      </c>
+          <t>spaincentral</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
           <t>1</t>
@@ -6206,7 +6150,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>brazilsouth-az2</t>
+          <t>spaincentral-az2</t>
         </is>
       </c>
     </row>
@@ -6216,37 +6160,37 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Brazil South</t>
+          <t>Spain Central</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/brazilsouth</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/spaincentral</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>-23.55</t>
+          <t>40.4259</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>-46.633</t>
+          <t>3.4209</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Sao Paulo State</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -6261,7 +6205,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>(South America) Brazil South</t>
+          <t>(Europe) Spain Central</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -6271,19 +6215,11 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>brazilsouth</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/southcentralus</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>southcentralus</t>
-        </is>
-      </c>
+          <t>spaincentral</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
           <t>2</t>
@@ -6291,7 +6227,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>brazilsouth-az3</t>
+          <t>spaincentral-az3</t>
         </is>
       </c>
     </row>
@@ -6301,37 +6237,37 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Brazil South</t>
+          <t>Spain Central</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/brazilsouth</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/spaincentral</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>-23.55</t>
+          <t>40.4259</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>-46.633</t>
+          <t>3.4209</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Sao Paulo State</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -6346,7 +6282,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>(South America) Brazil South</t>
+          <t>(Europe) Spain Central</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -6356,19 +6292,11 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>brazilsouth</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/southcentralus</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>southcentralus</t>
-        </is>
-      </c>
+          <t>spaincentral</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
           <t>3</t>
@@ -6376,7 +6304,7 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>brazilsouth-az1</t>
+          <t>spaincentral-az1</t>
         </is>
       </c>
     </row>
@@ -6386,38 +6314,42 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Brazil US</t>
+          <t>Switzerland North</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/brazilus</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/switzerlandnorth</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47.451542</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr"/>
+          <t>8.564572</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Recommended</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -6427,7 +6359,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>(South America) Brazil US</t>
+          <t>(Europe) Switzerland North</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -6437,21 +6369,29 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>brazilus</t>
+          <t>switzerlandnorth</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/brazilsoutheast</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/switzerlandwest</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>brazilsoutheast</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
+          <t>switzerlandwest</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>switzerlandnorth-az2</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -6459,42 +6399,42 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>East US 2</t>
+          <t>Switzerland North</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/eastus2</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/switzerlandnorth</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>36.6681</t>
+          <t>47.451542</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>-78.3889</t>
+          <t>8.564572</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Recommended</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -6504,7 +6444,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>(US) East US 2</t>
+          <t>(Europe) Switzerland North</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -6514,27 +6454,27 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>eastus2</t>
+          <t>switzerlandnorth</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/centralus</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/switzerlandwest</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>centralus</t>
+          <t>switzerlandwest</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>eastus2-az2</t>
+          <t>switzerlandnorth-az3</t>
         </is>
       </c>
     </row>
@@ -6544,42 +6484,42 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>East US 2</t>
+          <t>Switzerland North</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/eastus2</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/switzerlandnorth</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>36.6681</t>
+          <t>47.451542</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>-78.3889</t>
+          <t>8.564572</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Recommended</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -6589,7 +6529,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>(US) East US 2</t>
+          <t>(Europe) Switzerland North</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -6599,27 +6539,27 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>eastus2</t>
+          <t>switzerlandnorth</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/centralus</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/switzerlandwest</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>centralus</t>
+          <t>switzerlandwest</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>eastus2-az3</t>
+          <t>switzerlandnorth-az1</t>
         </is>
       </c>
     </row>
@@ -6629,42 +6569,42 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>East US 2</t>
+          <t>Mexico Central</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/eastus2</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/mexicocentral</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>36.6681</t>
+          <t>20.588818</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>-78.3889</t>
+          <t>-100.389888</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Querétaro State</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Recommended</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -6674,7 +6614,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>(US) East US 2</t>
+          <t>(Mexico) Mexico Central</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6684,27 +6624,19 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>eastus2</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/centralus</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>centralus</t>
-        </is>
-      </c>
+          <t>mexicocentral</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>eastus2-az1</t>
+          <t>mexicocentral-az2</t>
         </is>
       </c>
     </row>
@@ -6714,42 +6646,42 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>East US STG</t>
+          <t>Mexico Central</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/eastusstg</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/mexicocentral</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Stage (US)</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>37.3719</t>
+          <t>20.588818</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>-79.8164</t>
+          <t>-100.389888</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Querétaro State</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Recommended</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -6759,7 +6691,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>(US) East US STG</t>
+          <t>(Mexico) Mexico Central</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6769,21 +6701,21 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>eastusstg</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/southcentralusstg</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>southcentralusstg</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
+          <t>mexicocentral</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>mexicocentral-az3</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -6791,42 +6723,42 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>North Central US</t>
+          <t>Mexico Central</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/northcentralus</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/mexicocentral</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>41.8819</t>
+          <t>20.588818</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>-87.6278</t>
+          <t>-100.389888</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Illinois</t>
+          <t>Querétaro State</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Recommended</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -6836,7 +6768,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>(US) North Central US</t>
+          <t>(Mexico) Mexico Central</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -6846,21 +6778,21 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>northcentralus</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/southcentralus</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>southcentralus</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
+          <t>mexicocentral</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>mexicocentral-az1</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -6868,42 +6800,42 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>West US</t>
+          <t>UAE North</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/westus</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/uaenorth</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Middle East</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>37.783</t>
+          <t>25.266666</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>-122.417</t>
+          <t>55.316666</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Dubai</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Recommended</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -6913,7 +6845,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>(US) West US</t>
+          <t>(Middle East) UAE North</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6923,21 +6855,29 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>westus</t>
+          <t>uaenorth</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/eastus</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/uaecentral</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>eastus</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
+          <t>uaecentral</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>uaenorth-az2</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -6945,42 +6885,42 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Japan West</t>
+          <t>UAE North</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/japanwest</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/uaenorth</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Middle East</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>34.6939</t>
+          <t>25.266666</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>135.5022</t>
+          <t>55.316666</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Osaka</t>
+          <t>Dubai</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Recommended</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -6990,7 +6930,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>(Asia Pacific) Japan West</t>
+          <t>(Middle East) UAE North</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -7000,21 +6940,29 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>japanwest</t>
+          <t>uaenorth</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/japaneast</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/uaecentral</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>japaneast</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
+          <t>uaecentral</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>uaenorth-az3</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -7022,42 +6970,42 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Jio India West</t>
+          <t>UAE North</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/jioindiawest</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/uaenorth</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Middle East</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>22.470701</t>
+          <t>25.266666</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>70.05773</t>
+          <t>55.316666</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Jamnagar</t>
+          <t>Dubai</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Recommended</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -7067,7 +7015,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>(Asia Pacific) Jio India West</t>
+          <t>(Middle East) UAE North</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -7077,21 +7025,29 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>jioindiawest</t>
+          <t>uaenorth</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/jioindiacentral</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/uaecentral</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>jioindiacentral</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
+          <t>uaecentral</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>uaenorth-az1</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -7099,38 +7055,42 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Central US EUAP</t>
+          <t>Brazil South</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/centraluseuap</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/brazilsouth</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Canary (US)</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>41.5908</t>
+          <t>-23.55</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>-93.6208</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr"/>
+          <t>-46.633</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Sao Paulo State</t>
+        </is>
+      </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Recommended</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -7140,7 +7100,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>(US) Central US EUAP</t>
+          <t>(South America) Brazil South</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -7150,21 +7110,29 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>centraluseuap</t>
+          <t>brazilsouth</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/eastus2euap</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/southcentralus</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>eastus2euap</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
+          <t>southcentralus</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>brazilsouth-az2</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -7172,38 +7140,42 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>East US 2 EUAP</t>
+          <t>Brazil South</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/eastus2euap</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/brazilsouth</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Canary (US)</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>36.6681</t>
+          <t>-23.55</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>-78.3889</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr"/>
+          <t>-46.633</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Sao Paulo State</t>
+        </is>
+      </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Recommended</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -7213,7 +7185,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>(US) East US 2 EUAP</t>
+          <t>(South America) Brazil South</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -7223,27 +7195,27 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>eastus2euap</t>
+          <t>brazilsouth</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/centraluseuap</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/southcentralus</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>centraluseuap</t>
+          <t>southcentralus</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>eastus2euap-az2</t>
+          <t>brazilsouth-az3</t>
         </is>
       </c>
     </row>
@@ -7253,38 +7225,42 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>East US 2 EUAP</t>
+          <t>Brazil South</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/eastus2euap</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/brazilsouth</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Canary (US)</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>36.6681</t>
+          <t>-23.55</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>-78.3889</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr"/>
+          <t>-46.633</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Sao Paulo State</t>
+        </is>
+      </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Recommended</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -7294,7 +7270,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>(US) East US 2 EUAP</t>
+          <t>(South America) Brazil South</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -7304,27 +7280,27 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>eastus2euap</t>
+          <t>brazilsouth</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/centraluseuap</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/southcentralus</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>centraluseuap</t>
+          <t>southcentralus</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>eastus2euap-az3</t>
+          <t>brazilsouth-az1</t>
         </is>
       </c>
     </row>
@@ -7334,38 +7310,42 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>East US 2 EUAP</t>
+          <t>Israel Central</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/eastus2euap</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/israelcentral</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Canary (US)</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Middle East</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>36.6681</t>
+          <t>31.2655698</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>-78.3889</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr"/>
+          <t>33.4506633</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Recommended</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -7375,7 +7355,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>(US) East US 2 EUAP</t>
+          <t>(Middle East) Israel Central</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -7385,27 +7365,19 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>eastus2euap</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/centraluseuap</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>centraluseuap</t>
-        </is>
-      </c>
+          <t>israelcentral</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>eastus2euap-az1</t>
+          <t>israelcentral-az2</t>
         </is>
       </c>
     </row>
@@ -7415,42 +7387,42 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>South Central US STG</t>
+          <t>Israel Central</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/southcentralusstg</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/israelcentral</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Stage (US)</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Middle East</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>29.4167</t>
+          <t>31.2655698</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>-98.5</t>
+          <t>33.4506633</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Recommended</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -7460,7 +7432,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>(US) South Central US STG</t>
+          <t>(Middle East) Israel Central</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -7470,21 +7442,21 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>southcentralusstg</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/eastusstg</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>eastusstg</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
+          <t>israelcentral</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>israelcentral-az3</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -7492,42 +7464,42 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>West Central US</t>
+          <t>Israel Central</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/westcentralus</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/israelcentral</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Middle East</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>40.89</t>
+          <t>31.2655698</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>-110.234</t>
+          <t>33.4506633</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Wyoming</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Recommended</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -7537,7 +7509,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>(US) West Central US</t>
+          <t>(Middle East) Israel Central</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -7547,21 +7519,21 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>westcentralus</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/westus2</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>westus2</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
+          <t>israelcentral</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>israelcentral-az1</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -7569,42 +7541,42 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>South Africa West</t>
+          <t>Qatar Central</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/southafricawest</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/qatarcentral</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Middle East</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>-34.075691</t>
+          <t>25.551462</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>18.843266</t>
+          <t>51.439327</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Doha</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Recommended</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -7614,7 +7586,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>(Africa) South Africa West</t>
+          <t>(Middle East) Qatar Central</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -7624,21 +7596,21 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>southafricawest</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/southafricanorth</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>southafricanorth</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
+          <t>qatarcentral</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>qatarcentral-az2</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -7646,42 +7618,42 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Australia Central</t>
+          <t>Qatar Central</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/australiacentral</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/qatarcentral</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Middle East</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>-35.3075</t>
+          <t>25.551462</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>149.1244</t>
+          <t>51.439327</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Doha</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Recommended</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -7691,7 +7663,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>(Asia Pacific) Australia Central</t>
+          <t>(Middle East) Qatar Central</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -7701,21 +7673,21 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>australiacentral</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/australiacentral2</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>australiacentral2</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
+          <t>qatarcentral</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>qatarcentral-az3</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -7723,42 +7695,42 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Australia Central 2</t>
+          <t>Qatar Central</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/australiacentral2</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/qatarcentral</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Middle East</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>-35.3075</t>
+          <t>25.551462</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>149.1244</t>
+          <t>51.439327</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Doha</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Recommended</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -7768,7 +7740,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>(Asia Pacific) Australia Central 2</t>
+          <t>(Middle East) Qatar Central</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -7778,21 +7750,21 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>australiacentral2</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/australiacentral</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>australiacentral</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
+          <t>qatarcentral</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>qatarcentral-az1</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -7800,39 +7772,27 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Australia Southeast</t>
+          <t>Central US (Stage)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/australiasoutheast</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/centralusstage</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>usa</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>-37.8136</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>144.9631</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Victoria</t>
-        </is>
-      </c>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
           <t>Other</t>
@@ -7840,12 +7800,12 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Logical</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>(Asia Pacific) Australia Southeast</t>
+          <t>(US) Central US (Stage)</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -7855,19 +7815,11 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>australiasoutheast</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/australiaeast</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>australiaeast</t>
-        </is>
-      </c>
+          <t>centralusstage</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
     </row>
@@ -7877,39 +7829,27 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Jio India Central</t>
+          <t>East US (Stage)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/jioindiacentral</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/eastusstage</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>usa</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>21.146633</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>79.08886</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Nagpur</t>
-        </is>
-      </c>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
           <t>Other</t>
@@ -7917,12 +7857,12 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Logical</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>(Asia Pacific) Jio India Central</t>
+          <t>(US) East US (Stage)</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -7932,19 +7872,11 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>jioindiacentral</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/jioindiawest</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>jioindiawest</t>
-        </is>
-      </c>
+          <t>eastusstage</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
     </row>
@@ -7954,39 +7886,27 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Korea South</t>
+          <t>East US 2 (Stage)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/koreasouth</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/eastus2stage</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>usa</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>35.1796</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>129.0756</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Busan</t>
-        </is>
-      </c>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
           <t>Other</t>
@@ -7994,12 +7914,12 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Logical</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>(Asia Pacific) Korea South</t>
+          <t>(US) East US 2 (Stage)</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -8009,19 +7929,11 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>koreasouth</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/koreacentral</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>koreacentral</t>
-        </is>
-      </c>
+          <t>eastus2stage</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
     </row>
@@ -8031,39 +7943,27 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>South India</t>
+          <t>North Central US (Stage)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/southindia</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/northcentralusstage</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>usa</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>12.9822</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>80.1636</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Chennai</t>
-        </is>
-      </c>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
           <t>Other</t>
@@ -8071,12 +7971,12 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Logical</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>(Asia Pacific) South India</t>
+          <t>(US) North Central US (Stage)</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -8086,19 +7986,11 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>southindia</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/centralindia</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>centralindia</t>
-        </is>
-      </c>
+          <t>northcentralusstage</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
     </row>
@@ -8108,39 +8000,27 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>West India</t>
+          <t>South Central US (Stage)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/westindia</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/southcentralusstage</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>usa</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>19.088</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>72.868</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
           <t>Other</t>
@@ -8148,12 +8028,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Logical</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>(Asia Pacific) West India</t>
+          <t>(US) South Central US (Stage)</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -8163,19 +8043,11 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>westindia</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/southindia</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>southindia</t>
-        </is>
-      </c>
+          <t>southcentralusstage</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
     </row>
@@ -8185,39 +8057,27 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Canada East</t>
+          <t>West US (Stage)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/canadaeast</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/westusstage</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>usa</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>46.817</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>-71.217</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Quebec</t>
-        </is>
-      </c>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
           <t>Other</t>
@@ -8225,12 +8085,12 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Logical</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>(Canada) Canada East</t>
+          <t>(US) West US (Stage)</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -8240,19 +8100,11 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>canadaeast</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/canadacentral</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>canadacentral</t>
-        </is>
-      </c>
+          <t>westusstage</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
     </row>
@@ -8262,39 +8114,27 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>France South</t>
+          <t>West US 2 (Stage)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/francesouth</t>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/westus2stage</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>usa</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Europe</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>43.8345</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>2.1972</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Marseille</t>
-        </is>
-      </c>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
           <t>Other</t>
@@ -8302,12 +8142,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Logical</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>(Europe) France South</t>
+          <t>(US) West US 2 (Stage)</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -8317,19 +8157,11 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>francesouth</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/francecentral</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>francecentral</t>
-        </is>
-      </c>
+          <t>westus2stage</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
     </row>
@@ -8339,39 +8171,19 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Germany North</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/germanynorth</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Europe</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>53.073635</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>8.806422</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/asia</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
           <t>Other</t>
@@ -8379,12 +8191,12 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Logical</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>(Europe) Germany North</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -8394,19 +8206,11 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>germanynorth</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/germanywestcentral</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>germanywestcentral</t>
-        </is>
-      </c>
+          <t>asia</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
     </row>
@@ -8416,39 +8220,19 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Norway West</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/norwaywest</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Europe</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>58.969975</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>5.733107</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/asiapacific</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
           <t>Other</t>
@@ -8456,12 +8240,12 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Logical</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>(Europe) Norway West</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -8471,19 +8255,11 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>norwaywest</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/norwayeast</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>norwayeast</t>
-        </is>
-      </c>
+          <t>asiapacific</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
     </row>
@@ -8493,39 +8269,19 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Switzerland West</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/switzerlandwest</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Europe</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>46.204391</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>6.143158</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Geneva</t>
-        </is>
-      </c>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/australia</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
           <t>Other</t>
@@ -8533,12 +8289,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Logical</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>(Europe) Switzerland West</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -8548,19 +8304,11 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>switzerlandwest</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/switzerlandnorth</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>switzerlandnorth</t>
-        </is>
-      </c>
+          <t>australia</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
     </row>
@@ -8570,39 +8318,19 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>UK West</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/ukwest</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Europe</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>53.427</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>-3.084</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Cardiff</t>
-        </is>
-      </c>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/brazil</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
           <t>Other</t>
@@ -8610,12 +8338,12 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Logical</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>(Europe) UK West</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -8625,19 +8353,11 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>ukwest</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/uksouth</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>uksouth</t>
-        </is>
-      </c>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
     </row>
@@ -8647,39 +8367,19 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>UAE Central</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/uaecentral</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>UAE</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Middle East</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>24.466667</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>54.366669</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Abu Dhabi</t>
-        </is>
-      </c>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/canada</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
           <t>Other</t>
@@ -8687,12 +8387,12 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Logical</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>(Middle East) UAE Central</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -8702,19 +8402,11 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>uaecentral</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/uaenorth</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>uaenorth</t>
-        </is>
-      </c>
+          <t>canada</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
     </row>
@@ -8724,39 +8416,19 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Brazil Southeast</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/brazilsoutheast</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>South America</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>-22.90278</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>-43.2075</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Rio</t>
-        </is>
-      </c>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/europe</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
           <t>Other</t>
@@ -8764,12 +8436,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Logical</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>(South America) Brazil Southeast</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -8779,21 +8451,3522 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>brazilsoutheast</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/brazilsouth</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>brazilsouth</t>
-        </is>
-      </c>
+          <t>europe</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/france</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Logical</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/germany</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Logical</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>germany</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/global</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Logical</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/india</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Logical</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/israel</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Logical</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/italy</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Logical</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/japan</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Logical</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Korea</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/korea</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Logical</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Korea</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>korea</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/newzealand</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Logical</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>newzealand</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/norway</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Logical</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/poland</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Logical</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/qatar</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Logical</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>qatar</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/singapore</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Logical</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>singapore</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/southafrica</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Logical</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>southafrica</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/sweden</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Logical</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/switzerland</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Logical</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>switzerland</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/uae</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Logical</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>uae</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/uk</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Logical</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>uk</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/unitedstates</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Logical</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>unitedstates</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>United States EUAP</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/unitedstateseuap</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Logical</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>United States EUAP</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>unitedstateseuap</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>East Asia (Stage)</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/eastasiastage</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>asia</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Asia Pacific</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Logical</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>(Asia Pacific) East Asia (Stage)</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>eastasiastage</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Southeast Asia (Stage)</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/southeastasiastage</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>asia</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Asia Pacific</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Logical</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>(Asia Pacific) Southeast Asia (Stage)</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>southeastasiastage</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Brazil US</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/brazilus</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>South America</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>(South America) Brazil US</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>brazilus</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/brazilsoutheast</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>brazilsoutheast</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>East US 2</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/eastus2</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>36.6681</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>-78.3889</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>(US) East US 2</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>eastus2</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/centralus</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>centralus</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>eastus2-az2</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>East US 2</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/eastus2</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>36.6681</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>-78.3889</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>(US) East US 2</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>eastus2</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/centralus</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>centralus</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>eastus2-az3</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>East US 2</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/eastus2</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>36.6681</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>-78.3889</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>(US) East US 2</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>eastus2</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/centralus</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>centralus</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>eastus2-az1</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>East US STG</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/eastusstg</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Stage (US)</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>37.3719</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>-79.8164</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>(US) East US STG</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>eastusstg</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/southcentralusstg</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>southcentralusstg</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>North Central US</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/northcentralus</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>41.8819</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>-87.6278</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>(US) North Central US</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>northcentralus</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/southcentralus</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>southcentralus</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>West US</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/westus</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>37.783</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>-122.417</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>(US) West US</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>westus</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/eastus</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>eastus</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Japan West</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/japanwest</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Asia Pacific</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>34.6939</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>135.5022</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Osaka</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>(Asia Pacific) Japan West</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>japanwest</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/japaneast</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>japaneast</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Jio India West</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/jioindiawest</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Asia Pacific</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>22.470701</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>70.05773</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Jamnagar</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>(Asia Pacific) Jio India West</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>jioindiawest</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/jioindiacentral</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>jioindiacentral</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Central US EUAP</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/centraluseuap</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Canary (US)</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>41.5908</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>-93.6208</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>(US) Central US EUAP</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>centraluseuap</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/eastus2euap</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>eastus2euap</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>East US 2 EUAP</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/eastus2euap</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Canary (US)</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>36.6681</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>-78.3889</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>(US) East US 2 EUAP</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>eastus2euap</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/centraluseuap</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>centraluseuap</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>eastus2euap-az2</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>East US 2 EUAP</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/eastus2euap</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Canary (US)</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>36.6681</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>-78.3889</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>(US) East US 2 EUAP</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>eastus2euap</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/centraluseuap</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>centraluseuap</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>eastus2euap-az3</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>East US 2 EUAP</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/eastus2euap</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Canary (US)</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>36.6681</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>-78.3889</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>(US) East US 2 EUAP</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>eastus2euap</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/centraluseuap</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>centraluseuap</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>eastus2euap-az1</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>South Central US STG</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/southcentralusstg</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Stage (US)</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>29.4167</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>-98.5</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>(US) South Central US STG</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>southcentralusstg</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/eastusstg</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>eastusstg</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>West Central US</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/westcentralus</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>40.89</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>-110.234</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Wyoming</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>(US) West Central US</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>westcentralus</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/westus2</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>westus2</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>South Africa West</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/southafricawest</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Africa</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>-34.075691</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>18.843266</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Cape Town</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>(Africa) South Africa West</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>southafricawest</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/southafricanorth</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>southafricanorth</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Australia Central</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/australiacentral</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Asia Pacific</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>-35.3075</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>149.1244</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Canberra</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>(Asia Pacific) Australia Central</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>australiacentral</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/australiacentral2</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>australiacentral2</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Australia Central 2</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/australiacentral2</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Asia Pacific</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>-35.3075</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>149.1244</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Canberra</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>(Asia Pacific) Australia Central 2</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>australiacentral2</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/australiacentral</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>australiacentral</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Australia Southeast</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/australiasoutheast</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Asia Pacific</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>-37.8136</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>144.9631</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>(Asia Pacific) Australia Southeast</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>australiasoutheast</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/australiaeast</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>australiaeast</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Jio India Central</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/jioindiacentral</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Asia Pacific</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>21.146633</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>79.08886</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Nagpur</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>(Asia Pacific) Jio India Central</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>jioindiacentral</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/jioindiawest</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>jioindiawest</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Korea South</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/koreasouth</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Korea</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Asia Pacific</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>35.1796</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>129.0756</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Busan</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>(Asia Pacific) Korea South</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>koreasouth</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/koreacentral</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>koreacentral</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>South India</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/southindia</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Asia Pacific</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>12.9822</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>80.1636</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>(Asia Pacific) South India</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>southindia</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/centralindia</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>centralindia</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>West India</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/westindia</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Asia Pacific</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>19.088</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>72.868</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>(Asia Pacific) West India</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>westindia</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/southindia</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>southindia</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Canada East</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/canadaeast</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>46.817</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>-71.217</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Quebec</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>(Canada) Canada East</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>canadaeast</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/canadacentral</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>canadacentral</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>France South</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/francesouth</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>43.8345</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>2.1972</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>(Europe) France South</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>francesouth</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/francecentral</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>francecentral</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Germany North</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/germanynorth</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>53.073635</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>8.806422</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>(Europe) Germany North</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>germanynorth</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/germanywestcentral</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>germanywestcentral</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Norway West</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/norwaywest</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>58.969975</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>5.733107</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>(Europe) Norway West</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>norwaywest</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/norwayeast</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>norwayeast</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Switzerland West</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/switzerlandwest</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>46.204391</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>6.143158</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Geneva</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>(Europe) Switzerland West</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>switzerlandwest</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/switzerlandnorth</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>switzerlandnorth</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>UK West</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/ukwest</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>53.427</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>-3.084</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>(Europe) UK West</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>ukwest</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/uksouth</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>uksouth</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>UAE Central</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/uaecentral</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Middle East</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>24.466667</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>54.366669</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Abu Dhabi</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>(Middle East) UAE Central</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>uaecentral</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/uaenorth</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>uaenorth</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Brazil Southeast</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/brazilsoutheast</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>South America</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>-22.90278</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>-43.2075</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Rio</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>(South America) Brazil Southeast</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>brazilsoutheast</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>/subscriptions/823ca539-d44d-43ee-8dc8-023fd4f27396/locations/brazilsouth</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>brazilsouth</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
